--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448673333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N2">
-        <v>0.434602</v>
+        <v>0.335025</v>
       </c>
       <c r="O2">
-        <v>0.03218399861311745</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P2">
-        <v>0.03218399861311746</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q2">
-        <v>7.061794731688665</v>
+        <v>5.345033557224999</v>
       </c>
       <c r="R2">
-        <v>63.55615258519799</v>
+        <v>48.10530201502499</v>
       </c>
       <c r="S2">
-        <v>0.004986559201857759</v>
+        <v>0.003399130862521088</v>
       </c>
       <c r="T2">
-        <v>0.004986559201857759</v>
+        <v>0.003399130862521088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.759566</v>
       </c>
       <c r="O3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q3">
-        <v>109.8353610137593</v>
+        <v>107.8430179905295</v>
       </c>
       <c r="R3">
-        <v>988.5182491238339</v>
+        <v>970.5871619147658</v>
       </c>
       <c r="S3">
-        <v>0.07755826258936879</v>
+        <v>0.06858189510588231</v>
       </c>
       <c r="T3">
-        <v>0.07755826258936879</v>
+        <v>0.06858189510588231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002935666666666666</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N4">
-        <v>0.008806999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O4">
-        <v>0.0006521932153688326</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P4">
-        <v>0.0006521932153688327</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q4">
-        <v>0.1431038656103333</v>
+        <v>0.7462386377304445</v>
       </c>
       <c r="R4">
-        <v>1.287934790493</v>
+        <v>6.716147739574</v>
       </c>
       <c r="S4">
-        <v>0.0001010502181093536</v>
+        <v>0.0004745644264265694</v>
       </c>
       <c r="T4">
-        <v>0.0001010502181093536</v>
+        <v>0.0004745644264265693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096925333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N5">
-        <v>6.290775999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q5">
-        <v>102.2180496524026</v>
+        <v>79.18369869866767</v>
       </c>
       <c r="R5">
-        <v>919.9624468716238</v>
+        <v>712.653288288009</v>
       </c>
       <c r="S5">
-        <v>0.07217943532157226</v>
+        <v>0.05035623278573966</v>
       </c>
       <c r="T5">
-        <v>0.07217943532157226</v>
+        <v>0.05035623278573965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>55.966988</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003305333333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N6">
-        <v>0.009915999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q6">
-        <v>0.1611238709426666</v>
+        <v>2.0833711283</v>
       </c>
       <c r="R6">
-        <v>1.450114838484</v>
+        <v>18.7503401547</v>
       </c>
       <c r="S6">
-        <v>0.0001137747204237936</v>
+        <v>0.001324903019685908</v>
       </c>
       <c r="T6">
-        <v>0.0001137747204237936</v>
+        <v>0.001324903019685908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1448673333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N7">
-        <v>0.434602</v>
+        <v>6.759566</v>
       </c>
       <c r="O7">
-        <v>0.03218399861311745</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P7">
-        <v>0.03218399861311746</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q7">
-        <v>2.702596102086222</v>
+        <v>42.03472768968978</v>
       </c>
       <c r="R7">
-        <v>24.323364918776</v>
+        <v>378.312549207208</v>
       </c>
       <c r="S7">
-        <v>0.00190838957712671</v>
+        <v>0.02673164511653218</v>
       </c>
       <c r="T7">
-        <v>0.00190838957712671</v>
+        <v>0.02673164511653218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.253188666666667</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N8">
-        <v>6.759566</v>
+        <v>0.046774</v>
       </c>
       <c r="O8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q8">
-        <v>42.03472768968979</v>
+        <v>0.2908666551902223</v>
       </c>
       <c r="R8">
-        <v>378.312549207208</v>
+        <v>2.617799896712</v>
       </c>
       <c r="S8">
-        <v>0.02968206612095686</v>
+        <v>0.000184974296971237</v>
       </c>
       <c r="T8">
-        <v>0.02968206612095686</v>
+        <v>0.000184974296971237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002935666666666666</v>
+        <v>1.654403</v>
       </c>
       <c r="N9">
-        <v>0.008806999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O9">
-        <v>0.0006521932153688326</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P9">
-        <v>0.0006521932153688327</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q9">
-        <v>0.05476680703511111</v>
+        <v>30.86398428272134</v>
       </c>
       <c r="R9">
-        <v>0.4929012633159999</v>
+        <v>277.775858544492</v>
       </c>
       <c r="S9">
-        <v>3.86725947090785E-05</v>
+        <v>0.01962770119075375</v>
       </c>
       <c r="T9">
-        <v>3.86725947090785E-05</v>
+        <v>0.01962770119075375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.65566266666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H10">
-        <v>55.966988</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.096925333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N10">
-        <v>6.290775999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q10">
-        <v>39.11953165585422</v>
+        <v>19.10311217345</v>
       </c>
       <c r="R10">
-        <v>352.075784902688</v>
+        <v>171.92800956105</v>
       </c>
       <c r="S10">
-        <v>0.02762355292989645</v>
+        <v>0.01214846968943787</v>
       </c>
       <c r="T10">
-        <v>0.02762355292989645</v>
+        <v>0.01214846968943787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.65566266666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H11">
-        <v>55.966988</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.003305333333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N11">
-        <v>0.009915999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q11">
-        <v>0.06166318366755556</v>
+        <v>385.4301844394858</v>
       </c>
       <c r="R11">
-        <v>0.554968653008</v>
+        <v>3468.871659955372</v>
       </c>
       <c r="S11">
-        <v>4.354234689851511E-05</v>
+        <v>0.2451112086105658</v>
       </c>
       <c r="T11">
-        <v>4.35423468985151E-05</v>
+        <v>0.2451112086105658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1448673333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N12">
-        <v>0.434602</v>
+        <v>0.046774</v>
       </c>
       <c r="O12">
-        <v>0.03218399861311745</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P12">
-        <v>0.03218399861311746</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q12">
-        <v>14.14794291762755</v>
+        <v>2.667051619434222</v>
       </c>
       <c r="R12">
-        <v>127.331486258648</v>
+        <v>24.003464574908</v>
       </c>
       <c r="S12">
-        <v>0.009990315156949299</v>
+        <v>0.001696089907480836</v>
       </c>
       <c r="T12">
-        <v>0.009990315156949302</v>
+        <v>0.001696089907480836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.253188666666667</v>
+        <v>1.654403</v>
       </c>
       <c r="N13">
-        <v>6.759566</v>
+        <v>4.963209</v>
       </c>
       <c r="O13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q13">
-        <v>220.0495025700205</v>
+        <v>283.0019797545754</v>
       </c>
       <c r="R13">
-        <v>1980.445523130184</v>
+        <v>2547.017817791178</v>
       </c>
       <c r="S13">
-        <v>0.1553839942388649</v>
+        <v>0.179972820233849</v>
       </c>
       <c r="T13">
-        <v>0.1553839942388649</v>
+        <v>0.179972820233849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>12.628047</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>37.884141</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002935666666666666</v>
+        <v>0.111675</v>
       </c>
       <c r="N14">
-        <v>0.008806999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O14">
-        <v>0.0006521932153688326</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P14">
-        <v>0.0006521932153688327</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q14">
-        <v>0.2867012422297778</v>
+        <v>1.410237148725</v>
       </c>
       <c r="R14">
-        <v>2.580311180068</v>
+        <v>12.692134338525</v>
       </c>
       <c r="S14">
-        <v>0.0002024489201321036</v>
+        <v>0.0008968289093761255</v>
       </c>
       <c r="T14">
-        <v>0.0002024489201321036</v>
+        <v>0.0008968289093761255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>12.628047</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>37.884141</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,43 +1364,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.096925333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N15">
-        <v>6.290775999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q15">
-        <v>204.7886106266915</v>
+        <v>28.453372382534</v>
       </c>
       <c r="R15">
-        <v>1843.097495640224</v>
+        <v>256.080351442806</v>
       </c>
       <c r="S15">
-        <v>0.1446077901661127</v>
+        <v>0.01809469204876036</v>
       </c>
       <c r="T15">
-        <v>0.1446077901661127</v>
+        <v>0.01809469204876036</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>12.628047</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>37.884141</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.003305333333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N16">
-        <v>0.009915999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q16">
-        <v>0.3228033970648889</v>
+        <v>0.196888090126</v>
       </c>
       <c r="R16">
-        <v>2.905230573584</v>
+        <v>1.771992811134</v>
       </c>
       <c r="S16">
-        <v>0.0002279418067480345</v>
+        <v>0.0001252093885744613</v>
       </c>
       <c r="T16">
-        <v>0.0002279418067480345</v>
+        <v>0.0001252093885744613</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1448673333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N17">
-        <v>0.434602</v>
+        <v>4.963209</v>
       </c>
       <c r="O17">
-        <v>0.03218399861311745</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P17">
-        <v>0.03218399861311746</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q17">
-        <v>1.569561115003778</v>
+        <v>20.891878840941</v>
       </c>
       <c r="R17">
-        <v>14.126050035034</v>
+        <v>188.026909568469</v>
       </c>
       <c r="S17">
-        <v>0.00110831732134313</v>
+        <v>0.01328602138489895</v>
       </c>
       <c r="T17">
-        <v>0.00110831732134313</v>
+        <v>0.01328602138489895</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>418.546342</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.253188666666667</v>
+        <v>0.111675</v>
       </c>
       <c r="N18">
-        <v>6.759566</v>
+        <v>0.335025</v>
       </c>
       <c r="O18">
-        <v>0.5005726222366118</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P18">
-        <v>0.5005726222366118</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q18">
-        <v>24.41211027078022</v>
+        <v>15.58038758095</v>
       </c>
       <c r="R18">
-        <v>219.708992437022</v>
+        <v>140.22348822855</v>
       </c>
       <c r="S18">
-        <v>0.01723817212659422</v>
+        <v>0.009908221475029004</v>
       </c>
       <c r="T18">
-        <v>0.01723817212659422</v>
+        <v>0.009908221475029004</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>418.546342</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.002935666666666666</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N19">
-        <v>0.008806999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O19">
-        <v>0.0006521932153688326</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P19">
-        <v>0.0006521932153688327</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q19">
-        <v>0.03180639927988888</v>
+        <v>314.3546247563968</v>
       </c>
       <c r="R19">
-        <v>0.2862575935189999</v>
+        <v>2829.191622807572</v>
       </c>
       <c r="S19">
-        <v>2.245951617587804E-05</v>
+        <v>0.1999112812568492</v>
       </c>
       <c r="T19">
-        <v>2.245951617587804E-05</v>
+        <v>0.1999112812568492</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,61 +1656,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>418.546342</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>2.096925333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N20">
-        <v>6.290775999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O20">
-        <v>0.4658568668791965</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P20">
-        <v>0.4658568668791965</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q20">
-        <v>22.71907950906577</v>
+        <v>2.175231844523111</v>
       </c>
       <c r="R20">
-        <v>204.471715581592</v>
+        <v>19.577086600708</v>
       </c>
       <c r="S20">
-        <v>0.01604266893730276</v>
+        <v>0.001383321099240375</v>
       </c>
       <c r="T20">
-        <v>0.01604266893730276</v>
+        <v>0.001383321099240375</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>418.546342</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.003305333333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N21">
-        <v>0.009915999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O21">
-        <v>0.0007343190557053872</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P21">
-        <v>0.0007343190557053872</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q21">
-        <v>0.03581154255244444</v>
+        <v>230.8147746146087</v>
       </c>
       <c r="R21">
-        <v>0.322303882972</v>
+        <v>2077.332971531478</v>
       </c>
       <c r="S21">
-        <v>2.528767598501268E-05</v>
+        <v>0.1467847891914252</v>
       </c>
       <c r="T21">
-        <v>2.528767598501268E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>138.7199146666667</v>
-      </c>
-      <c r="H22">
-        <v>416.159744</v>
-      </c>
-      <c r="I22">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="J22">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1448673333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.434602</v>
-      </c>
-      <c r="O22">
-        <v>0.03218399861311745</v>
-      </c>
-      <c r="P22">
-        <v>0.03218399861311746</v>
-      </c>
-      <c r="Q22">
-        <v>20.09598411798756</v>
-      </c>
-      <c r="R22">
-        <v>180.863857061888</v>
-      </c>
-      <c r="S22">
-        <v>0.01419041735584055</v>
-      </c>
-      <c r="T22">
-        <v>0.01419041735584056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>138.7199146666667</v>
-      </c>
-      <c r="H23">
-        <v>416.159744</v>
-      </c>
-      <c r="I23">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="J23">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.253188666666667</v>
-      </c>
-      <c r="N23">
-        <v>6.759566</v>
-      </c>
-      <c r="O23">
-        <v>0.5005726222366118</v>
-      </c>
-      <c r="P23">
-        <v>0.5005726222366118</v>
-      </c>
-      <c r="Q23">
-        <v>312.5621395679005</v>
-      </c>
-      <c r="R23">
-        <v>2813.059256111104</v>
-      </c>
-      <c r="S23">
-        <v>0.220710127160827</v>
-      </c>
-      <c r="T23">
-        <v>0.220710127160827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>138.7199146666667</v>
-      </c>
-      <c r="H24">
-        <v>416.159744</v>
-      </c>
-      <c r="I24">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="J24">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.002935666666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.008806999999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.0006521932153688326</v>
-      </c>
-      <c r="P24">
-        <v>0.0006521932153688327</v>
-      </c>
-      <c r="Q24">
-        <v>0.4072354294897778</v>
-      </c>
-      <c r="R24">
-        <v>3.665118865408</v>
-      </c>
-      <c r="S24">
-        <v>0.0002875619662424189</v>
-      </c>
-      <c r="T24">
-        <v>0.000287561966242419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>138.7199146666667</v>
-      </c>
-      <c r="H25">
-        <v>416.159744</v>
-      </c>
-      <c r="I25">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="J25">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.096925333333333</v>
-      </c>
-      <c r="N25">
-        <v>6.290775999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.4658568668791965</v>
-      </c>
-      <c r="P25">
-        <v>0.4658568668791965</v>
-      </c>
-      <c r="Q25">
-        <v>290.8853033023715</v>
-      </c>
-      <c r="R25">
-        <v>2617.967729721344</v>
-      </c>
-      <c r="S25">
-        <v>0.2054034195243124</v>
-      </c>
-      <c r="T25">
-        <v>0.2054034195243124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>138.7199146666667</v>
-      </c>
-      <c r="H26">
-        <v>416.159744</v>
-      </c>
-      <c r="I26">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="J26">
-        <v>0.4409152985128724</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.003305333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.009915999999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.0007343190557053872</v>
-      </c>
-      <c r="P26">
-        <v>0.0007343190557053872</v>
-      </c>
-      <c r="Q26">
-        <v>0.4585155579448889</v>
-      </c>
-      <c r="R26">
-        <v>4.126640021504</v>
-      </c>
-      <c r="S26">
-        <v>0.0003237725056500314</v>
-      </c>
-      <c r="T26">
-        <v>0.0003237725056500314</v>
+        <v>0.1467847891914252</v>
       </c>
     </row>
   </sheetData>
